--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="31">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,18 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,6 +218,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -215,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,8 +608,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2506,7 +2530,7 @@
         <v>215517</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" ref="G73:G125" si="13">E73+F73</f>
+        <f t="shared" ref="G73:G128" si="13">E73+F73</f>
         <v>341477</v>
       </c>
       <c r="H73" s="10">
@@ -3479,7 +3503,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H125" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H128" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -3886,7 +3910,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="13">
+      <c r="A125" s="8">
         <v>43689</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -3911,23 +3935,98 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I130" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H126" s="15"/>
-      <c r="I126" s="14"/>
+      <c r="A126" s="13">
+        <v>43694</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="10">
+        <v>214</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="10">
+        <f t="shared" si="14"/>
+        <v>28140210</v>
+      </c>
+      <c r="I126" s="12">
+        <f t="shared" si="15"/>
+        <v>3157538</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H127" s="15"/>
-      <c r="I127" s="14"/>
+      <c r="A127" s="13">
+        <v>43710</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="10">
+        <v>138574</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <f t="shared" si="14"/>
+        <v>28140210</v>
+      </c>
+      <c r="I127" s="12">
+        <f t="shared" si="15"/>
+        <v>3296112</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="14"/>
+      <c r="A128" s="13">
+        <v>43718</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="10">
+        <v>49240</v>
+      </c>
+      <c r="F128" s="10">
+        <v>89334</v>
+      </c>
+      <c r="G128" s="10">
+        <f t="shared" si="13"/>
+        <v>138574</v>
+      </c>
+      <c r="H128" s="10">
+        <f t="shared" si="14"/>
+        <v>28050876</v>
+      </c>
+      <c r="I128" s="12">
+        <f t="shared" si="15"/>
+        <v>3157538</v>
+      </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I129" s="14"/>
+      <c r="I129" s="21"/>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I130" s="14"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +307,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3695,7 +3704,7 @@
         <f t="shared" si="12"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="22"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
@@ -3935,7 +3944,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I130" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I128" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -617,8 +617,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3949,7 +3949,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
+      <c r="A126" s="8">
         <v>43694</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -3977,7 +3977,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="13">
+      <c r="A127" s="8">
         <v>43710</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -4005,7 +4005,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
+      <c r="A128" s="8">
         <v>43718</v>
       </c>
       <c r="B128" s="9" t="s">

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="36">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,26 @@
     <t>이상순</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,15 +244,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -242,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,11 +317,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126:A128"/>
+      <selection pane="bottomLeft" activeCell="L126" sqref="L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2559,7 @@
         <v>215517</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" ref="G73:G128" si="13">E73+F73</f>
+        <f t="shared" ref="G73:G131" si="13">E73+F73</f>
         <v>341477</v>
       </c>
       <c r="H73" s="10">
@@ -3512,7 +3532,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H128" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H131" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -3704,7 +3724,7 @@
         <f t="shared" si="12"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="22"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
@@ -3929,10 +3949,10 @@
       <c r="D125" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="22">
         <v>49400</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="22">
         <v>89334</v>
       </c>
       <c r="G125" s="10">
@@ -3944,7 +3964,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I128" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I131" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
@@ -4015,7 +4035,7 @@
       <c r="D128" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="25">
         <v>49240</v>
       </c>
       <c r="F128" s="10">
@@ -4034,17 +4054,118 @@
         <v>3157538</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I129" s="21"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I130" s="14"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I131" s="14"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
+        <v>43729</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="10">
+        <v>265</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <f t="shared" si="14"/>
+        <v>28050876</v>
+      </c>
+      <c r="I129" s="12">
+        <f t="shared" si="15"/>
+        <v>3157803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="10">
+        <v>138414</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="10">
+        <f t="shared" si="14"/>
+        <v>28050876</v>
+      </c>
+      <c r="I130" s="12">
+        <f t="shared" si="15"/>
+        <v>3296217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
+        <v>43748</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="22">
+        <v>49080</v>
+      </c>
+      <c r="F131" s="10">
+        <v>89334</v>
+      </c>
+      <c r="G131" s="10">
+        <f t="shared" si="13"/>
+        <v>138414</v>
+      </c>
+      <c r="H131" s="10">
+        <f t="shared" si="14"/>
+        <v>27961542</v>
+      </c>
+      <c r="I131" s="12">
+        <f t="shared" si="15"/>
+        <v>3157803</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I132" s="14"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="38">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,14 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +339,18 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,7 +658,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L126" sqref="L126"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2559,7 +2579,7 @@
         <v>215517</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" ref="G73:G131" si="13">E73+F73</f>
+        <f t="shared" ref="G73:G134" si="13">E73+F73</f>
         <v>341477</v>
       </c>
       <c r="H73" s="10">
@@ -3532,7 +3552,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H131" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H134" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -3964,7 +3984,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I131" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I134" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
@@ -4141,7 +4161,90 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I132" s="14"/>
+      <c r="A132" s="13">
+        <v>43757</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="10">
+        <v>214</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H132" s="10">
+        <f t="shared" si="14"/>
+        <v>27961542</v>
+      </c>
+      <c r="I132" s="12">
+        <f t="shared" si="15"/>
+        <v>3158017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="29">
+        <v>43770</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="28">
+        <v>138264</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="10">
+        <f t="shared" si="14"/>
+        <v>27961542</v>
+      </c>
+      <c r="I133" s="12">
+        <f t="shared" si="15"/>
+        <v>3296281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="29">
+        <v>43780</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="26"/>
+      <c r="D134" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="6">
+        <v>48930</v>
+      </c>
+      <c r="F134" s="10">
+        <v>89334</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="13"/>
+        <v>138264</v>
+      </c>
+      <c r="H134" s="10">
+        <f t="shared" si="14"/>
+        <v>27872208</v>
+      </c>
+      <c r="I134" s="12">
+        <f t="shared" si="15"/>
+        <v>3158017</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="43">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,6 +170,22 @@
     <t>이상순</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+  </si>
+  <si>
+    <t>예금이자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이상순 </t>
+  </si>
+  <si>
+    <t>출금</t>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,10 +362,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2601,7 @@
         <v>215517</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" ref="G73:G134" si="13">E73+F73</f>
+        <f t="shared" ref="G73:G136" si="13">E73+F73</f>
         <v>341477</v>
       </c>
       <c r="H73" s="10">
@@ -3552,7 +3574,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H134" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H137" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -3984,7 +4006,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I134" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I137" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
@@ -4189,13 +4211,13 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="29">
+      <c r="A133" s="28">
         <v>43770</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="28">
+      <c r="C133" s="30">
         <v>138264</v>
       </c>
       <c r="D133" s="27" t="s">
@@ -4217,11 +4239,11 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="29">
+      <c r="A134" s="28">
         <v>43780</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
@@ -4246,21 +4268,91 @@
         <v>3158017</v>
       </c>
     </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
+        <v>43785</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="10">
+        <v>216</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="10">
+        <f t="shared" si="14"/>
+        <v>27872208</v>
+      </c>
+      <c r="I135" s="12">
+        <f t="shared" si="15"/>
+        <v>3158233</v>
+      </c>
+    </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
+      <c r="A136" s="29">
+        <v>43801</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="31">
+        <v>138104</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="10">
+        <f t="shared" si="14"/>
+        <v>27872208</v>
+      </c>
+      <c r="I136" s="12">
+        <f t="shared" si="15"/>
+        <v>3296337</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
+      <c r="A137" s="29">
+        <v>43809</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="6">
+        <v>48770</v>
+      </c>
+      <c r="F137" s="6">
+        <v>89334</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" ref="G137" si="16">E137+F137</f>
+        <v>138104</v>
+      </c>
+      <c r="H137" s="10">
+        <f t="shared" si="14"/>
+        <v>27782874</v>
+      </c>
+      <c r="I137" s="12">
+        <f t="shared" si="15"/>
+        <v>3158233</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="45">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +186,14 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +380,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3574,7 +3585,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H137" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H139" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -4006,7 +4017,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I137" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I139" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
@@ -4342,7 +4353,7 @@
         <v>89334</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" ref="G137" si="16">E137+F137</f>
+        <f t="shared" ref="G137:G139" si="16">E137+F137</f>
         <v>138104</v>
       </c>
       <c r="H137" s="10">
@@ -4355,12 +4366,105 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
+      <c r="A138" s="29">
+        <v>43820</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="26">
+        <v>265</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="10">
+        <f t="shared" si="14"/>
+        <v>27782874</v>
+      </c>
+      <c r="I138" s="12">
+        <f t="shared" si="15"/>
+        <v>3158498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="8">
+        <v>43840</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="7">
+        <v>48620</v>
+      </c>
+      <c r="F139" s="7">
+        <v>89334</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="16"/>
+        <v>137954</v>
+      </c>
+      <c r="H139" s="10">
+        <f t="shared" si="14"/>
+        <v>27693540</v>
+      </c>
+      <c r="I139" s="12">
+        <f t="shared" si="15"/>
+        <v>3020544</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="15"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="47">
   <si>
     <t>입출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,14 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +392,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3585,7 +3596,7 @@
         <v>336577</v>
       </c>
       <c r="H109" s="10">
-        <f t="shared" ref="H109:H139" si="14">SUM(H108-F109)</f>
+        <f t="shared" ref="H109:H141" si="14">SUM(H108-F109)</f>
         <v>68965440</v>
       </c>
       <c r="I109" s="12">
@@ -4017,7 +4028,7 @@
         <v>28140210</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" ref="I125:I139" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
+        <f t="shared" ref="I125:I141" si="15">IF(EXACT(D125, "대출"),SUM(I124-G125),IF(EXACT(B125,"입금"),SUM(I124+C125),IF(EXACT(B124,"출금"),SUM(I124-C125))))</f>
         <v>3157324</v>
       </c>
     </row>
@@ -4353,7 +4364,7 @@
         <v>89334</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" ref="G137:G139" si="16">E137+F137</f>
+        <f t="shared" ref="G137:G141" si="16">E137+F137</f>
         <v>138104</v>
       </c>
       <c r="H137" s="10">
@@ -4372,7 +4383,7 @@
       <c r="B138" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C138" s="26">
+      <c r="C138" s="33">
         <v>265</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -4404,10 +4415,10 @@
       <c r="D139" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="22">
         <v>48620</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="22">
         <v>89334</v>
       </c>
       <c r="G139" s="10">
@@ -4423,13 +4434,63 @@
         <v>3020544</v>
       </c>
     </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
+        <v>43848</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="10">
+        <v>209</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="10">
+        <f t="shared" si="14"/>
+        <v>27693540</v>
+      </c>
+      <c r="I140" s="12">
+        <f t="shared" si="15"/>
+        <v>3020753</v>
+      </c>
+    </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
+      <c r="A141" s="13">
+        <v>43871</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="10">
+        <v>48460</v>
+      </c>
+      <c r="F141" s="10">
+        <v>89334</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="16"/>
+        <v>137794</v>
+      </c>
+      <c r="H141" s="10">
+        <f t="shared" si="14"/>
+        <v>27604206</v>
+      </c>
+      <c r="I141" s="12">
+        <f t="shared" si="15"/>
+        <v>2882959</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="27">
   <si>
     <t>날    자</t>
   </si>
@@ -79,6 +79,38 @@
   </si>
   <si>
     <t xml:space="preserve">이상순 </t>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,6 +193,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -170,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,20 +290,26 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,17 +681,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L151" sqref="L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
@@ -3477,7 +3525,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8">
-        <f t="shared" ref="H107:H143" si="4">SUM(H106-F107)</f>
+        <f t="shared" ref="H107:H154" si="4">SUM(H106-F107)</f>
         <v>69180957</v>
       </c>
       <c r="I107" s="9">
@@ -3884,7 +3932,7 @@
         <v>28229544</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" ref="I122:I143" si="5">IF(EXACT(D122, "대출"),SUM(I121-G122),IF(EXACT(B122,"입금"),SUM(I121+C122),IF(EXACT(B121,"출금"),SUM(I121-C122))))</f>
+        <f t="shared" ref="I122:I154" si="5">IF(EXACT(D122, "대출"),SUM(I121-G122),IF(EXACT(B122,"입금"),SUM(I121+C122),IF(EXACT(B121,"출금"),SUM(I121-C122))))</f>
         <v>3157070</v>
       </c>
     </row>
@@ -3956,7 +4004,7 @@
         <v>89334</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" ref="G125:G143" si="6">E125+F125</f>
+        <f t="shared" ref="G125:G154" si="6">E125+F125</f>
         <v>138734</v>
       </c>
       <c r="H125" s="8">
@@ -4380,7 +4428,7 @@
       <c r="C140" s="8">
         <v>209</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="8"/>
@@ -4487,22 +4535,154 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
-      <c r="D145" s="28"/>
+      <c r="A144" s="28">
+        <v>43911</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="21">
+        <v>242</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="9">
+        <f t="shared" si="4"/>
+        <v>27514872</v>
+      </c>
+      <c r="I144" s="9">
+        <f t="shared" si="5"/>
+        <v>2745766</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="29">
+        <v>43931</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="9">
+        <v>48150</v>
+      </c>
+      <c r="F145" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G145" s="9">
+        <f t="shared" si="6"/>
+        <v>137484</v>
+      </c>
+      <c r="H145" s="9">
+        <f t="shared" si="4"/>
+        <v>27425538</v>
+      </c>
+      <c r="I145" s="9">
+        <f t="shared" si="5"/>
+        <v>2608282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="29">
+        <v>43939</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="9">
+        <v>187</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="9">
+        <f t="shared" si="4"/>
+        <v>27425538</v>
+      </c>
+      <c r="I146" s="9">
+        <f t="shared" si="5"/>
+        <v>2608469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="29">
+        <v>43962</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="9">
+        <v>47990</v>
+      </c>
+      <c r="F147" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G147" s="9">
+        <f t="shared" si="6"/>
+        <v>137324</v>
+      </c>
+      <c r="H147" s="9">
+        <f t="shared" si="4"/>
+        <v>27336204</v>
+      </c>
+      <c r="I147" s="9">
+        <f t="shared" si="5"/>
+        <v>2471145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7664,7 +7844,7 @@
         <f t="shared" si="3"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="29"/>
+      <c r="J116" s="26"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
@@ -7931,10 +8111,10 @@
       <c r="D125" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="30">
+      <c r="E125" s="27">
         <v>49400</v>
       </c>
-      <c r="F125" s="30">
+      <c r="F125" s="27">
         <v>89334</v>
       </c>
       <c r="G125" s="8">

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="31">
   <si>
     <t>날    자</t>
   </si>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t xml:space="preserve">이상순 </t>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입금</t>
@@ -170,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,15 +209,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -211,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,9 +314,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L151" sqref="L151"/>
+      <selection pane="bottomLeft" activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3525,7 +3529,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8">
-        <f t="shared" ref="H107:H154" si="4">SUM(H106-F107)</f>
+        <f t="shared" ref="H107:H147" si="4">SUM(H106-F107)</f>
         <v>69180957</v>
       </c>
       <c r="I107" s="9">
@@ -3932,7 +3936,7 @@
         <v>28229544</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" ref="I122:I154" si="5">IF(EXACT(D122, "대출"),SUM(I121-G122),IF(EXACT(B122,"입금"),SUM(I121+C122),IF(EXACT(B121,"출금"),SUM(I121-C122))))</f>
+        <f t="shared" ref="I122:I147" si="5">IF(EXACT(D122, "대출"),SUM(I121-G122),IF(EXACT(B122,"입금"),SUM(I121+C122),IF(EXACT(B121,"출금"),SUM(I121-C122))))</f>
         <v>3157070</v>
       </c>
     </row>
@@ -4004,7 +4008,7 @@
         <v>89334</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" ref="G125:G154" si="6">E125+F125</f>
+        <f t="shared" ref="G125:G149" si="6">E125+F125</f>
         <v>138734</v>
       </c>
       <c r="H125" s="8">
@@ -4651,13 +4655,62 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32"/>
+      <c r="A148" s="29">
+        <v>43967</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="9">
+        <v>178</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="9">
+        <f t="shared" ref="H148:H149" si="7">SUM(H147-F148)</f>
+        <v>27336204</v>
+      </c>
+      <c r="I148" s="9">
+        <f t="shared" ref="I148:I149" si="8">IF(EXACT(D148, "대출"),SUM(I147-G148),IF(EXACT(B148,"입금"),SUM(I147+C148),IF(EXACT(B147,"출금"),SUM(I147-C148))))</f>
+        <v>2471323</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="A149" s="29">
+        <v>43992</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="9">
+        <v>47830</v>
+      </c>
+      <c r="F149" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G149" s="9">
+        <f t="shared" si="6"/>
+        <v>137164</v>
+      </c>
+      <c r="H149" s="9">
+        <f t="shared" si="7"/>
+        <v>27246870</v>
+      </c>
+      <c r="I149" s="9">
+        <f t="shared" si="8"/>
+        <v>2334159</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G150" s="2"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="8190" tabRatio="500"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="35">
   <si>
     <t>날    자</t>
   </si>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t xml:space="preserve">이상순 </t>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입금</t>
@@ -685,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O151" sqref="O151"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4008,7 +4024,7 @@
         <v>89334</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" ref="G125:G149" si="6">E125+F125</f>
+        <f t="shared" ref="G125:G156" si="6">E125+F125</f>
         <v>138734</v>
       </c>
       <c r="H125" s="8">
@@ -4674,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="H148" s="9">
-        <f t="shared" ref="H148:H149" si="7">SUM(H147-F148)</f>
+        <f t="shared" ref="H148:H156" si="7">SUM(H147-F148)</f>
         <v>27336204</v>
       </c>
       <c r="I148" s="9">
-        <f t="shared" ref="I148:I149" si="8">IF(EXACT(D148, "대출"),SUM(I147-G148),IF(EXACT(B148,"입금"),SUM(I147+C148),IF(EXACT(B147,"출금"),SUM(I147-C148))))</f>
+        <f t="shared" ref="I148:I156" si="8">IF(EXACT(D148, "대출"),SUM(I147-G148),IF(EXACT(B148,"입금"),SUM(I147+C148),IF(EXACT(B147,"출금"),SUM(I147-C148))))</f>
         <v>2471323</v>
       </c>
     </row>
@@ -4713,12 +4729,62 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="A150" s="29">
+        <v>44002</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="9">
+        <v>203</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="9">
+        <f t="shared" si="7"/>
+        <v>27246870</v>
+      </c>
+      <c r="I150" s="9">
+        <f t="shared" si="8"/>
+        <v>2334362</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="A151" s="29">
+        <v>44022</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" s="9">
+        <v>47680</v>
+      </c>
+      <c r="F151" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G151" s="9">
+        <f t="shared" si="6"/>
+        <v>137014</v>
+      </c>
+      <c r="H151" s="9">
+        <f t="shared" si="7"/>
+        <v>27157536</v>
+      </c>
+      <c r="I151" s="9">
+        <f t="shared" si="8"/>
+        <v>2197348</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G152" s="2"/>
@@ -4731,6 +4797,14 @@
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="39">
   <si>
     <t>날    자</t>
   </si>
@@ -144,6 +144,22 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +346,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,8 +723,8 @@
   <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K151" sqref="K151"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4024,7 +4043,7 @@
         <v>89334</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" ref="G125:G156" si="6">E125+F125</f>
+        <f t="shared" ref="G125:G151" si="6">E125+F125</f>
         <v>138734</v>
       </c>
       <c r="H125" s="8">
@@ -4690,11 +4709,11 @@
         <v>0</v>
       </c>
       <c r="H148" s="9">
-        <f t="shared" ref="H148:H156" si="7">SUM(H147-F148)</f>
+        <f t="shared" ref="H148:H151" si="7">SUM(H147-F148)</f>
         <v>27336204</v>
       </c>
       <c r="I148" s="9">
-        <f t="shared" ref="I148:I156" si="8">IF(EXACT(D148, "대출"),SUM(I147-G148),IF(EXACT(B148,"입금"),SUM(I147+C148),IF(EXACT(B147,"출금"),SUM(I147-C148))))</f>
+        <f t="shared" ref="I148:I151" si="8">IF(EXACT(D148, "대출"),SUM(I147-G148),IF(EXACT(B148,"입금"),SUM(I147+C148),IF(EXACT(B147,"출금"),SUM(I147-C148))))</f>
         <v>2471323</v>
       </c>
     </row>
@@ -4787,12 +4806,62 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="A152" s="29">
+        <v>44030</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="9">
+        <v>156</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9">
+        <f t="shared" ref="G152:G155" si="9">E152+F152</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="9">
+        <f t="shared" ref="H152:H155" si="10">SUM(H151-F152)</f>
+        <v>27157536</v>
+      </c>
+      <c r="I152" s="9">
+        <f t="shared" ref="I152:I155" si="11">IF(EXACT(D152, "대출"),SUM(I151-G152),IF(EXACT(B152,"입금"),SUM(I151+C152),IF(EXACT(B151,"출금"),SUM(I151-C152))))</f>
+        <v>2197504</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="A153" s="29">
+        <v>44053</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E153" s="9">
+        <v>47520</v>
+      </c>
+      <c r="F153" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G153" s="9">
+        <f t="shared" si="9"/>
+        <v>136854</v>
+      </c>
+      <c r="H153" s="9">
+        <f t="shared" si="10"/>
+        <v>27068202</v>
+      </c>
+      <c r="I153" s="9">
+        <f t="shared" si="11"/>
+        <v>2060650</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G154" s="2"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="43">
   <si>
     <t>날    자</t>
   </si>
@@ -160,6 +160,22 @@
     <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,6 +257,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -250,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +377,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4821,15 +4853,15 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9">
-        <f t="shared" ref="G152:G155" si="9">E152+F152</f>
+        <f t="shared" ref="G152:G167" si="9">E152+F152</f>
         <v>0</v>
       </c>
       <c r="H152" s="9">
-        <f t="shared" ref="H152:H155" si="10">SUM(H151-F152)</f>
+        <f t="shared" ref="H152:H153" si="10">SUM(H151-F152)</f>
         <v>27157536</v>
       </c>
       <c r="I152" s="9">
-        <f t="shared" ref="I152:I155" si="11">IF(EXACT(D152, "대출"),SUM(I151-G152),IF(EXACT(B152,"입금"),SUM(I151+C152),IF(EXACT(B151,"출금"),SUM(I151-C152))))</f>
+        <f t="shared" ref="I152:I153" si="11">IF(EXACT(D152, "대출"),SUM(I151-G152),IF(EXACT(B152,"입금"),SUM(I151+C152),IF(EXACT(B151,"출금"),SUM(I151-C152))))</f>
         <v>2197504</v>
       </c>
     </row>
@@ -4864,16 +4896,247 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="A154" s="29">
+        <v>44058</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" s="9">
+        <v>146</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="9">
+        <f t="shared" ref="H154:H167" si="12">SUM(H153-F154)</f>
+        <v>27068202</v>
+      </c>
+      <c r="I154" s="9">
+        <f t="shared" ref="I154:I167" si="13">IF(EXACT(D154, "대출"),SUM(I153-G154),IF(EXACT(B154,"입금"),SUM(I153+C154),IF(EXACT(B153,"출금"),SUM(I153-C154))))</f>
+        <v>2060796</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="A155" s="29">
+        <v>44084</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" s="9">
+        <v>47360</v>
+      </c>
+      <c r="F155" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G155" s="9">
+        <f t="shared" si="9"/>
+        <v>136694</v>
+      </c>
+      <c r="H155" s="9">
+        <f t="shared" si="12"/>
+        <v>26978868</v>
+      </c>
+      <c r="I155" s="9">
+        <f t="shared" si="13"/>
+        <v>1924102</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="A156" s="29">
+        <v>44093</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="9">
+        <v>174</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="9">
+        <f t="shared" si="12"/>
+        <v>26978868</v>
+      </c>
+      <c r="I156" s="9">
+        <f t="shared" si="13"/>
+        <v>1924276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="29">
+        <v>44116</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="9">
+        <v>47210</v>
+      </c>
+      <c r="F157" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G157" s="9">
+        <f t="shared" si="9"/>
+        <v>136544</v>
+      </c>
+      <c r="H157" s="9">
+        <f t="shared" si="12"/>
+        <v>26889534</v>
+      </c>
+      <c r="I157" s="9">
+        <f t="shared" si="13"/>
+        <v>1787732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="29">
+        <v>44121</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" s="9">
+        <v>125</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="9">
+        <f t="shared" si="12"/>
+        <v>26889534</v>
+      </c>
+      <c r="I158" s="9">
+        <f t="shared" si="13"/>
+        <v>1787857</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="32"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="47">
   <si>
     <t>날    자</t>
   </si>
@@ -176,6 +176,22 @@
     <t>출금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,19 +273,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -279,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,9 +380,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,8 +755,8 @@
   <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4853,7 +4853,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9">
-        <f t="shared" ref="G152:G167" si="9">E152+F152</f>
+        <f t="shared" ref="G152:G163" si="9">E152+F152</f>
         <v>0</v>
       </c>
       <c r="H152" s="9">
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="H154" s="9">
-        <f t="shared" ref="H154:H167" si="12">SUM(H153-F154)</f>
+        <f t="shared" ref="H154:H163" si="12">SUM(H153-F154)</f>
         <v>27068202</v>
       </c>
       <c r="I154" s="9">
-        <f t="shared" ref="I154:I167" si="13">IF(EXACT(D154, "대출"),SUM(I153-G154),IF(EXACT(B154,"입금"),SUM(I153+C154),IF(EXACT(B153,"출금"),SUM(I153-C154))))</f>
+        <f t="shared" ref="I154:I163" si="13">IF(EXACT(D154, "대출"),SUM(I153-G154),IF(EXACT(B154,"입금"),SUM(I153+C154),IF(EXACT(B153,"출금"),SUM(I153-C154))))</f>
         <v>2060796</v>
       </c>
     </row>
@@ -5040,59 +5040,150 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="32"/>
-      <c r="B159" s="32"/>
+      <c r="A159" s="29">
+        <v>44145</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
+      <c r="D159" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="9">
+        <v>47050</v>
+      </c>
+      <c r="F159" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G159" s="9">
+        <f t="shared" si="9"/>
+        <v>136384</v>
+      </c>
+      <c r="H159" s="9">
+        <f t="shared" si="12"/>
+        <v>26800200</v>
+      </c>
+      <c r="I159" s="9">
+        <f t="shared" si="13"/>
+        <v>1651473</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="32"/>
+      <c r="A160" s="29">
+        <v>44156</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="9">
+        <v>147</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
+      <c r="G160" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="9">
+        <f t="shared" si="12"/>
+        <v>26800200</v>
+      </c>
+      <c r="I160" s="9">
+        <f t="shared" si="13"/>
+        <v>1651620</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
+      <c r="A161" s="29">
+        <v>44175</v>
+      </c>
+      <c r="B161" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="C161" s="9"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
+      <c r="D161" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" s="9">
+        <v>46900</v>
+      </c>
+      <c r="F161" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G161" s="9">
+        <f t="shared" si="9"/>
+        <v>136234</v>
+      </c>
+      <c r="H161" s="9">
+        <f t="shared" si="12"/>
+        <v>26710866</v>
+      </c>
+      <c r="I161" s="9">
+        <f t="shared" si="13"/>
+        <v>1515386</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="32"/>
+      <c r="A162" s="29">
+        <v>44184</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" s="9">
+        <v>113</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
+      <c r="G162" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="9">
+        <f t="shared" si="12"/>
+        <v>26710866</v>
+      </c>
+      <c r="I162" s="9">
+        <f t="shared" si="13"/>
+        <v>1515499</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
+      <c r="A163" s="29">
+        <v>44207</v>
+      </c>
+      <c r="B163" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="C163" s="9"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
+      <c r="D163" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="9">
+        <v>46740</v>
+      </c>
+      <c r="F163" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G163" s="9">
+        <f t="shared" si="9"/>
+        <v>136074</v>
+      </c>
+      <c r="H163" s="9">
+        <f t="shared" si="12"/>
+        <v>26621532</v>
+      </c>
+      <c r="I163" s="9">
+        <f t="shared" si="13"/>
+        <v>1379425</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="32"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="55">
   <si>
     <t>날    자</t>
   </si>
@@ -192,6 +192,38 @@
     <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +412,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I164" sqref="I164"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5186,48 +5221,360 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="32"/>
+      <c r="A164" s="29">
+        <v>44212</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="9">
+        <v>104</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
+      <c r="G164" s="9">
+        <f t="shared" ref="G164:G173" si="14">E164+F164</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="9">
+        <f t="shared" ref="H164:H173" si="15">SUM(H163-F164)</f>
+        <v>26621532</v>
+      </c>
+      <c r="I164" s="9">
+        <f t="shared" ref="I164:I173" si="16">IF(EXACT(D164, "대출"),SUM(I163-G164),IF(EXACT(B164,"입금"),SUM(I163+C164),IF(EXACT(B163,"출금"),SUM(I163-C164))))</f>
+        <v>1379529</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
+      <c r="A165" s="29">
+        <v>44237</v>
+      </c>
+      <c r="B165" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="C165" s="9"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
+      <c r="D165" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" s="9">
+        <v>46580</v>
+      </c>
+      <c r="F165" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G165" s="9">
+        <f t="shared" si="14"/>
+        <v>135914</v>
+      </c>
+      <c r="H165" s="9">
+        <f t="shared" si="15"/>
+        <v>26532198</v>
+      </c>
+      <c r="I165" s="9">
+        <f t="shared" si="16"/>
+        <v>1243615</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="32"/>
+      <c r="A166" s="29">
+        <v>44247</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="9">
+        <v>118</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
+      <c r="G166" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H166" s="9">
+        <f t="shared" si="15"/>
+        <v>26532198</v>
+      </c>
+      <c r="I166" s="9">
+        <f t="shared" si="16"/>
+        <v>1243733</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="29">
+        <v>44265</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="C167" s="9"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
+      <c r="D167" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="9">
+        <v>46430</v>
+      </c>
+      <c r="F167" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G167" s="9">
+        <f t="shared" si="14"/>
+        <v>135764</v>
+      </c>
+      <c r="H167" s="9">
+        <f t="shared" si="15"/>
+        <v>26442864</v>
+      </c>
+      <c r="I167" s="9">
+        <f t="shared" si="16"/>
+        <v>1107969</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="29">
+        <v>44275</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" s="9">
+        <v>81</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <f t="shared" si="15"/>
+        <v>26442864</v>
+      </c>
+      <c r="I168" s="9">
+        <f t="shared" si="16"/>
+        <v>1108050</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="29">
+        <v>44298</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" s="9">
+        <v>46270</v>
+      </c>
+      <c r="F169" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G169" s="9">
+        <f t="shared" si="14"/>
+        <v>135604</v>
+      </c>
+      <c r="H169" s="9">
+        <f t="shared" si="15"/>
+        <v>26353530</v>
+      </c>
+      <c r="I169" s="9">
+        <f t="shared" si="16"/>
+        <v>972446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="29">
+        <v>44303</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" s="9">
+        <v>73</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="9">
+        <f t="shared" si="15"/>
+        <v>26353530</v>
+      </c>
+      <c r="I170" s="9">
+        <f t="shared" si="16"/>
+        <v>972519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="29">
+        <v>44326</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" s="9">
+        <v>46110</v>
+      </c>
+      <c r="F171" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G171" s="9">
+        <f t="shared" si="14"/>
+        <v>135444</v>
+      </c>
+      <c r="H171" s="9">
+        <f t="shared" si="15"/>
+        <v>26264196</v>
+      </c>
+      <c r="I171" s="9">
+        <f t="shared" si="16"/>
+        <v>837075</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="29">
+        <v>44331</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172" s="9">
+        <v>62</v>
+      </c>
+      <c r="D172" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="9">
+        <f t="shared" si="15"/>
+        <v>26264196</v>
+      </c>
+      <c r="I172" s="9">
+        <f t="shared" si="16"/>
+        <v>837137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="29">
+        <v>44357</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" s="9">
+        <v>45960</v>
+      </c>
+      <c r="F173" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G173" s="9">
+        <f t="shared" si="14"/>
+        <v>135294</v>
+      </c>
+      <c r="H173" s="9">
+        <f t="shared" si="15"/>
+        <v>26174862</v>
+      </c>
+      <c r="I173" s="9">
+        <f t="shared" si="16"/>
+        <v>701843</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="60">
   <si>
     <t>날    자</t>
   </si>
@@ -222,6 +222,26 @@
   </si>
   <si>
     <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주기영입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -787,18 +807,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F174" sqref="F174"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
@@ -5236,15 +5256,15 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9">
-        <f t="shared" ref="G164:G173" si="14">E164+F164</f>
+        <f t="shared" ref="G164:G180" si="14">E164+F164</f>
         <v>0</v>
       </c>
       <c r="H164" s="9">
-        <f t="shared" ref="H164:H173" si="15">SUM(H163-F164)</f>
+        <f t="shared" ref="H164:H180" si="15">SUM(H163-F164)</f>
         <v>26621532</v>
       </c>
       <c r="I164" s="9">
-        <f t="shared" ref="I164:I173" si="16">IF(EXACT(D164, "대출"),SUM(I163-G164),IF(EXACT(B164,"입금"),SUM(I163+C164),IF(EXACT(B163,"출금"),SUM(I163-C164))))</f>
+        <f t="shared" ref="I164:I180" si="16">IF(EXACT(D164, "대출"),SUM(I163-G164),IF(EXACT(B164,"입금"),SUM(I163+C164),IF(EXACT(B163,"출금"),SUM(I163-C164))))</f>
         <v>1379529</v>
       </c>
     </row>
@@ -5511,70 +5531,204 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="32"/>
+      <c r="A174" s="29">
+        <v>44366</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" s="9">
+        <v>66</v>
+      </c>
+      <c r="D174" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9"/>
+      <c r="G174" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="9">
+        <f t="shared" si="15"/>
+        <v>26174862</v>
+      </c>
+      <c r="I174" s="9">
+        <f t="shared" si="16"/>
+        <v>701909</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
+      <c r="A175" s="29">
+        <v>44389</v>
+      </c>
+      <c r="B175" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
+      <c r="D175" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175" s="9">
+        <v>45800</v>
+      </c>
+      <c r="F175" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G175" s="9">
+        <f t="shared" si="14"/>
+        <v>135134</v>
+      </c>
+      <c r="H175" s="9">
+        <f t="shared" si="15"/>
+        <v>26085528</v>
+      </c>
+      <c r="I175" s="9">
+        <f t="shared" si="16"/>
+        <v>566775</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="32"/>
+      <c r="A176" s="29">
+        <v>44394</v>
+      </c>
+      <c r="B176" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C176" s="9">
+        <v>51</v>
+      </c>
+      <c r="D176" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
+      <c r="G176" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="9">
+        <f t="shared" si="15"/>
+        <v>26085528</v>
+      </c>
+      <c r="I176" s="9">
+        <f t="shared" si="16"/>
+        <v>566826</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="32"/>
+      <c r="A177" s="29">
+        <v>44411</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D177" s="32" t="s">
+        <v>59</v>
+      </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
+      <c r="G177" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <f t="shared" si="15"/>
+        <v>26085528</v>
+      </c>
+      <c r="I177" s="9">
+        <f t="shared" si="16"/>
+        <v>1266826</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="29">
+        <v>44418</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
+      <c r="D178" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" s="9">
+        <v>45640</v>
+      </c>
+      <c r="F178" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G178" s="9">
+        <f t="shared" si="14"/>
+        <v>134974</v>
+      </c>
+      <c r="H178" s="9">
+        <f t="shared" si="15"/>
+        <v>25996194</v>
+      </c>
+      <c r="I178" s="9">
+        <f t="shared" si="16"/>
+        <v>1131852</v>
+      </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="32"/>
+      <c r="A179" s="29">
+        <v>44429</v>
+      </c>
+      <c r="B179" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="9">
+        <v>74</v>
+      </c>
+      <c r="D179" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
+      <c r="G179" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H179" s="9">
+        <f t="shared" si="15"/>
+        <v>25996194</v>
+      </c>
+      <c r="I179" s="9">
+        <f t="shared" si="16"/>
+        <v>1131926</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="29">
+        <v>44435</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H180" s="9">
+        <f t="shared" si="15"/>
+        <v>25996194</v>
+      </c>
+      <c r="I180" s="9">
+        <f t="shared" si="16"/>
+        <v>1831926</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="64">
   <si>
     <t>날    자</t>
   </si>
@@ -242,6 +242,22 @@
   </si>
   <si>
     <t>광주기영입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
+      <selection pane="bottomLeft" activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5256,15 +5272,15 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9">
-        <f t="shared" ref="G164:G180" si="14">E164+F164</f>
+        <f t="shared" ref="G164:G182" si="14">E164+F164</f>
         <v>0</v>
       </c>
       <c r="H164" s="9">
-        <f t="shared" ref="H164:H180" si="15">SUM(H163-F164)</f>
+        <f t="shared" ref="H164:H182" si="15">SUM(H163-F164)</f>
         <v>26621532</v>
       </c>
       <c r="I164" s="9">
-        <f t="shared" ref="I164:I180" si="16">IF(EXACT(D164, "대출"),SUM(I163-G164),IF(EXACT(B164,"입금"),SUM(I163+C164),IF(EXACT(B163,"출금"),SUM(I163-C164))))</f>
+        <f t="shared" ref="I164:I182" si="16">IF(EXACT(D164, "대출"),SUM(I163-G164),IF(EXACT(B164,"입금"),SUM(I163+C164),IF(EXACT(B163,"출금"),SUM(I163-C164))))</f>
         <v>1379529</v>
       </c>
     </row>
@@ -5728,6 +5744,64 @@
       <c r="I180" s="9">
         <f t="shared" si="16"/>
         <v>1831926</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="29">
+        <v>44449</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E181" s="9">
+        <v>45490</v>
+      </c>
+      <c r="F181" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G181" s="9">
+        <f t="shared" si="14"/>
+        <v>134824</v>
+      </c>
+      <c r="H181" s="9">
+        <f t="shared" si="15"/>
+        <v>25906860</v>
+      </c>
+      <c r="I181" s="9">
+        <f t="shared" si="16"/>
+        <v>1697102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="29">
+        <v>44457</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C182" s="9">
+        <v>116</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H182" s="9">
+        <f t="shared" si="15"/>
+        <v>25906860</v>
+      </c>
+      <c r="I182" s="9">
+        <f t="shared" si="16"/>
+        <v>1697218</v>
       </c>
     </row>
   </sheetData>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="68">
   <si>
     <t>날    자</t>
   </si>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -823,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K171" sqref="K171"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K179" sqref="K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5802,6 +5818,92 @@
       <c r="I182" s="9">
         <f t="shared" si="16"/>
         <v>1697218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="29">
+        <v>44462</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9">
+        <f t="shared" ref="G183:G185" si="17">E183+F183</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="9">
+        <f t="shared" ref="H183:H185" si="18">SUM(H182-F183)</f>
+        <v>25906860</v>
+      </c>
+      <c r="I183" s="9">
+        <f t="shared" ref="I183:I185" si="19">IF(EXACT(D183, "대출"),SUM(I182-G183),IF(EXACT(B183,"입금"),SUM(I182+C183),IF(EXACT(B182,"출금"),SUM(I182-C183))))</f>
+        <v>2397218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="29">
+        <v>44481</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" s="9">
+        <v>45330</v>
+      </c>
+      <c r="F184" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G184" s="9">
+        <f t="shared" si="17"/>
+        <v>134664</v>
+      </c>
+      <c r="H184" s="9">
+        <f t="shared" si="18"/>
+        <v>25817526</v>
+      </c>
+      <c r="I184" s="9">
+        <f t="shared" si="19"/>
+        <v>2262554</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="29">
+        <v>44485</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C185" s="9">
+        <v>152</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H185" s="9">
+        <f t="shared" si="18"/>
+        <v>25817526</v>
+      </c>
+      <c r="I185" s="9">
+        <f t="shared" si="19"/>
+        <v>2262706</v>
       </c>
     </row>
   </sheetData>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="76">
   <si>
     <t>날    자</t>
   </si>
@@ -276,6 +276,38 @@
     <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -357,6 +389,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -366,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +523,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K179" sqref="K179"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5836,7 +5898,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9">
-        <f t="shared" ref="G183:G185" si="17">E183+F183</f>
+        <f t="shared" ref="G183:G191" si="17">E183+F183</f>
         <v>0</v>
       </c>
       <c r="H183" s="9">
@@ -5905,6 +5967,523 @@
         <f t="shared" si="19"/>
         <v>2262706</v>
       </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="29">
+        <v>44510</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="9">
+        <v>45180</v>
+      </c>
+      <c r="F186" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G186" s="9">
+        <f t="shared" si="17"/>
+        <v>134514</v>
+      </c>
+      <c r="H186" s="9">
+        <f t="shared" ref="H186:H191" si="20">SUM(H185-F186)</f>
+        <v>25728192</v>
+      </c>
+      <c r="I186" s="9">
+        <f t="shared" ref="I186:I191" si="21">IF(EXACT(D186, "대출"),SUM(I185-G186),IF(EXACT(B186,"입금"),SUM(I185+C186),IF(EXACT(B185,"출금"),SUM(I185-C186))))</f>
+        <v>2128192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="29">
+        <v>44520</v>
+      </c>
+      <c r="B187" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" s="9">
+        <v>193</v>
+      </c>
+      <c r="D187" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H187" s="9">
+        <f t="shared" si="20"/>
+        <v>25728192</v>
+      </c>
+      <c r="I187" s="9">
+        <f t="shared" si="21"/>
+        <v>2128385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="29">
+        <v>44540</v>
+      </c>
+      <c r="B188" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E188" s="9">
+        <v>45020</v>
+      </c>
+      <c r="F188" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G188" s="9">
+        <f t="shared" si="17"/>
+        <v>134354</v>
+      </c>
+      <c r="H188" s="9">
+        <f t="shared" si="20"/>
+        <v>25638858</v>
+      </c>
+      <c r="I188" s="9">
+        <f t="shared" si="21"/>
+        <v>1994031</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="29">
+        <v>44548</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" s="9">
+        <v>140</v>
+      </c>
+      <c r="D189" s="32"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="9">
+        <f t="shared" si="20"/>
+        <v>25638858</v>
+      </c>
+      <c r="I189" s="9">
+        <f t="shared" si="21"/>
+        <v>1994171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="29">
+        <v>44560</v>
+      </c>
+      <c r="B190" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C190" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D190" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="9">
+        <f t="shared" si="20"/>
+        <v>25638858</v>
+      </c>
+      <c r="I190" s="9">
+        <f t="shared" si="21"/>
+        <v>2694171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="29">
+        <v>44571</v>
+      </c>
+      <c r="B191" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E191" s="9">
+        <v>44860</v>
+      </c>
+      <c r="F191" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G191" s="9">
+        <f t="shared" si="17"/>
+        <v>134194</v>
+      </c>
+      <c r="H191" s="9">
+        <f t="shared" si="20"/>
+        <v>25549524</v>
+      </c>
+      <c r="I191" s="9">
+        <f t="shared" si="21"/>
+        <v>2559977</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="34">
+        <v>44576</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C192" s="35">
+        <v>161</v>
+      </c>
+      <c r="D192" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="9">
+        <f t="shared" ref="H192" si="22">SUM(H191-F192)</f>
+        <v>25549524</v>
+      </c>
+      <c r="I192" s="9">
+        <f t="shared" ref="I192" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
+        <v>2560138</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="77">
   <si>
     <t>날    자</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -904,8 +908,8 @@
   <dimension ref="A1:K272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M193" sqref="M193"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6066,7 +6070,9 @@
       <c r="C189" s="9">
         <v>140</v>
       </c>
-      <c r="D189" s="32"/>
+      <c r="D189" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9">
@@ -6153,9 +6159,9 @@
       <c r="D192" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
-      <c r="G192" s="35"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
       <c r="H192" s="9">
         <f t="shared" ref="H192" si="22">SUM(H191-F192)</f>
         <v>25549524</v>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="85">
   <si>
     <t>날    자</t>
   </si>
@@ -306,6 +306,38 @@
   </si>
   <si>
     <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -908,8 +940,8 @@
   <dimension ref="A1:K272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5902,7 +5934,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9">
-        <f t="shared" ref="G183:G191" si="17">E183+F183</f>
+        <f t="shared" ref="G183:G200" si="17">E183+F183</f>
         <v>0</v>
       </c>
       <c r="H183" s="9">
@@ -6161,77 +6193,279 @@
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
+      <c r="G192" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="H192" s="9">
-        <f t="shared" ref="H192" si="22">SUM(H191-F192)</f>
+        <f t="shared" ref="H192:H200" si="22">SUM(H191-F192)</f>
         <v>25549524</v>
       </c>
       <c r="I192" s="9">
-        <f t="shared" ref="I192" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
+        <f t="shared" ref="I192:I200" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
         <v>2560138</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-    </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="29">
+        <v>44602</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="D193" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E193" s="9">
+        <v>44710</v>
+      </c>
+      <c r="F193" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G193" s="9">
+        <f t="shared" si="17"/>
+        <v>134044</v>
+      </c>
+      <c r="H193" s="9">
+        <f t="shared" si="22"/>
+        <v>25460190</v>
+      </c>
+      <c r="I193" s="9">
+        <f t="shared" si="23"/>
+        <v>2426094</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="29">
+        <v>44611</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C194" s="9">
+        <v>212</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H194" s="9">
+        <f t="shared" si="22"/>
+        <v>25460190</v>
+      </c>
+      <c r="I194" s="9">
+        <f t="shared" si="23"/>
+        <v>2426306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="29">
+        <v>44623</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D195" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H195" s="9">
+        <f t="shared" si="22"/>
+        <v>25460190</v>
+      </c>
+      <c r="I195" s="9">
+        <f t="shared" si="23"/>
+        <v>3126306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="29">
+        <v>44630</v>
+      </c>
+      <c r="B196" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E196" s="9">
+        <v>44550</v>
+      </c>
+      <c r="F196" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G196" s="9">
+        <f t="shared" si="17"/>
+        <v>133884</v>
+      </c>
+      <c r="H196" s="9">
+        <f t="shared" si="22"/>
+        <v>25370856</v>
+      </c>
+      <c r="I196" s="9">
+        <f t="shared" si="23"/>
+        <v>2992422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="29">
+        <v>44639</v>
+      </c>
+      <c r="B197" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="9">
+        <v>193</v>
+      </c>
+      <c r="D197" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H197" s="9">
+        <f t="shared" si="22"/>
+        <v>25370856</v>
+      </c>
+      <c r="I197" s="9">
+        <f t="shared" si="23"/>
+        <v>2992615</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="29">
+        <v>44648</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D198" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="9">
+        <f t="shared" si="22"/>
+        <v>25370856</v>
+      </c>
+      <c r="I198" s="9">
+        <f t="shared" si="23"/>
+        <v>3692615</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="29">
+        <v>44662</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E199" s="9">
+        <v>44390</v>
+      </c>
+      <c r="F199" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G199" s="9">
+        <f t="shared" si="17"/>
+        <v>133724</v>
+      </c>
+      <c r="H199" s="9">
+        <f t="shared" si="22"/>
+        <v>25281522</v>
+      </c>
+      <c r="I199" s="9">
+        <f t="shared" si="23"/>
+        <v>3558891</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="29">
+        <v>44667</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C200" s="9">
+        <v>234</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H200" s="9">
+        <f t="shared" si="22"/>
+        <v>25281522</v>
+      </c>
+      <c r="I200" s="9">
+        <f t="shared" si="23"/>
+        <v>3559125</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D201" s="10"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="1215" yWindow="1170" windowWidth="20925" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="90">
   <si>
     <t>날    자</t>
   </si>
@@ -344,6 +344,26 @@
     <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주기영입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +396,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +407,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BACC6"/>
-        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
@@ -458,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -537,7 +548,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -565,6 +576,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,11 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K272"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K200" sqref="K200"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,6 +971,7 @@
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
     <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4028,7 +4046,7 @@
         <f t="shared" si="3"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="14"/>
+      <c r="J116" s="36"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
@@ -4196,13 +4214,13 @@
       <c r="A123" s="11">
         <v>43666</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="8">
         <v>254</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="8"/>
@@ -4221,13 +4239,13 @@
       <c r="A124" s="11">
         <v>43684</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="17">
+      <c r="B124" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="16">
         <v>138734</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="8"/>
@@ -4246,17 +4264,17 @@
       <c r="A125" s="11">
         <v>43689</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="8"/>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="17">
         <v>49400</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="17">
         <v>89334</v>
       </c>
       <c r="G125" s="8">
@@ -4276,13 +4294,13 @@
       <c r="A126" s="11">
         <v>43694</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="8">
         <v>214</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="8"/>
@@ -4304,13 +4322,13 @@
       <c r="A127" s="11">
         <v>43710</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="8">
         <v>138574</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E127" s="8"/>
@@ -4332,14 +4350,14 @@
       <c r="A128" s="11">
         <v>43718</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="8"/>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="16">
         <v>49240</v>
       </c>
       <c r="F128" s="8">
@@ -4362,13 +4380,13 @@
       <c r="A129" s="6">
         <v>43729</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="8">
         <v>265</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D129" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="8"/>
@@ -4390,13 +4408,13 @@
       <c r="A130" s="6">
         <v>43742</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="8">
         <v>138414</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D130" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E130" s="8"/>
@@ -4418,14 +4436,14 @@
       <c r="A131" s="6">
         <v>43748</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="8"/>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="17">
         <v>49080</v>
       </c>
       <c r="F131" s="8">
@@ -4448,13 +4466,13 @@
       <c r="A132" s="6">
         <v>43757</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="8">
         <v>214</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="8"/>
@@ -4473,20 +4491,20 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="19">
+      <c r="A133" s="18">
         <v>43770</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="8">
         <v>138264</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4501,17 +4519,17 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="19">
+      <c r="A134" s="18">
         <v>43780</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="20" t="s">
+      <c r="C134" s="20"/>
+      <c r="D134" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="17">
+      <c r="E134" s="16">
         <v>48930</v>
       </c>
       <c r="F134" s="8">
@@ -4559,20 +4577,20 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="22">
+      <c r="A136" s="21">
         <v>43801</v>
       </c>
-      <c r="B136" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="23">
+      <c r="B136" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="22">
         <v>138104</v>
       </c>
-      <c r="D136" s="20" t="s">
+      <c r="D136" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
       <c r="G136" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4587,20 +4605,20 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="22">
+      <c r="A137" s="21">
         <v>43809</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="21"/>
-      <c r="D137" s="20" t="s">
+      <c r="C137" s="20"/>
+      <c r="D137" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E137" s="16">
         <v>48770</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137" s="16">
         <v>89334</v>
       </c>
       <c r="G137" s="8">
@@ -4617,20 +4635,20 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="22">
+      <c r="A138" s="21">
         <v>43820</v>
       </c>
-      <c r="B138" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="24">
+      <c r="B138" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="23">
         <v>265</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4648,17 +4666,17 @@
       <c r="A139" s="11">
         <v>43840</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="8"/>
-      <c r="D139" s="20" t="s">
+      <c r="D139" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>48620</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="17">
         <v>89334</v>
       </c>
       <c r="G139" s="8">
@@ -4678,7 +4696,7 @@
       <c r="A140" s="6">
         <v>43848</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="8">
@@ -4706,11 +4724,11 @@
       <c r="A141" s="6">
         <v>43871</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="8"/>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E141" s="8">
@@ -4733,20 +4751,20 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="25">
+      <c r="A142" s="24">
         <v>43876</v>
       </c>
-      <c r="B142" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="21">
+      <c r="B142" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="20">
         <v>199</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
       <c r="G142" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4761,20 +4779,20 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="25">
+      <c r="A143" s="24">
         <v>43900</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="21"/>
-      <c r="D143" s="17" t="s">
+      <c r="C143" s="20"/>
+      <c r="D143" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E143" s="17">
+      <c r="E143" s="16">
         <v>48300</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="16">
         <v>89334</v>
       </c>
       <c r="G143" s="8">
@@ -4791,20 +4809,20 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="28">
+      <c r="A144" s="27">
         <v>43911</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="20">
         <v>242</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4819,14 +4837,14 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="29">
+      <c r="A145" s="28">
         <v>43931</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E145" s="9">
@@ -4849,16 +4867,16 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="29">
+      <c r="A146" s="28">
         <v>43939</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C146" s="9">
         <v>187</v>
       </c>
-      <c r="D146" s="31" t="s">
+      <c r="D146" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E146" s="9"/>
@@ -4877,14 +4895,14 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="29">
+      <c r="A147" s="28">
         <v>43962</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E147" s="9">
@@ -4907,16 +4925,16 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="29">
+      <c r="A148" s="28">
         <v>43967</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C148" s="9">
         <v>178</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E148" s="9"/>
@@ -4935,14 +4953,14 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="29">
+      <c r="A149" s="28">
         <v>43992</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C149" s="9"/>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="9">
@@ -4965,16 +4983,16 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="29">
+      <c r="A150" s="28">
         <v>44002</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="9">
         <v>203</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E150" s="9"/>
@@ -4993,14 +5011,14 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="29">
+      <c r="A151" s="28">
         <v>44022</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E151" s="9">
@@ -5023,16 +5041,16 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="29">
+      <c r="A152" s="28">
         <v>44030</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C152" s="9">
         <v>156</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E152" s="9"/>
@@ -5051,14 +5069,14 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="29">
+      <c r="A153" s="28">
         <v>44053</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="9"/>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E153" s="9">
@@ -5081,16 +5099,16 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="29">
+      <c r="A154" s="28">
         <v>44058</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C154" s="9">
         <v>146</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E154" s="9"/>
@@ -5109,14 +5127,14 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="29">
+      <c r="A155" s="28">
         <v>44084</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C155" s="9"/>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E155" s="9">
@@ -5139,16 +5157,16 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="29">
+      <c r="A156" s="28">
         <v>44093</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C156" s="9">
         <v>174</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E156" s="9"/>
@@ -5167,14 +5185,14 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="29">
+      <c r="A157" s="28">
         <v>44116</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C157" s="9"/>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E157" s="9">
@@ -5197,16 +5215,16 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="29">
+      <c r="A158" s="28">
         <v>44121</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C158" s="9">
         <v>125</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E158" s="9"/>
@@ -5225,14 +5243,14 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="29">
+      <c r="A159" s="28">
         <v>44145</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="32" t="s">
+      <c r="D159" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E159" s="9">
@@ -5255,16 +5273,16 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="29">
+      <c r="A160" s="28">
         <v>44156</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C160" s="9">
         <v>147</v>
       </c>
-      <c r="D160" s="32" t="s">
+      <c r="D160" s="31" t="s">
         <v>46</v>
       </c>
       <c r="E160" s="9"/>
@@ -5283,14 +5301,14 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="29">
+      <c r="A161" s="28">
         <v>44175</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C161" s="9"/>
-      <c r="D161" s="32" t="s">
+      <c r="D161" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E161" s="9">
@@ -5313,16 +5331,16 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="29">
+      <c r="A162" s="28">
         <v>44184</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C162" s="9">
         <v>113</v>
       </c>
-      <c r="D162" s="32" t="s">
+      <c r="D162" s="31" t="s">
         <v>46</v>
       </c>
       <c r="E162" s="9"/>
@@ -5341,14 +5359,14 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="29">
+      <c r="A163" s="28">
         <v>44207</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="9"/>
-      <c r="D163" s="32" t="s">
+      <c r="D163" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E163" s="9">
@@ -5371,16 +5389,16 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="29">
+      <c r="A164" s="28">
         <v>44212</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C164" s="9">
         <v>104</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E164" s="9"/>
@@ -5399,14 +5417,14 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="29">
+      <c r="A165" s="28">
         <v>44237</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C165" s="9"/>
-      <c r="D165" s="32" t="s">
+      <c r="D165" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E165" s="9">
@@ -5429,16 +5447,16 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="29">
+      <c r="A166" s="28">
         <v>44247</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C166" s="9">
         <v>118</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E166" s="9"/>
@@ -5457,14 +5475,14 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="29">
+      <c r="A167" s="28">
         <v>44265</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C167" s="9"/>
-      <c r="D167" s="32" t="s">
+      <c r="D167" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E167" s="9">
@@ -5487,16 +5505,16 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="29">
+      <c r="A168" s="28">
         <v>44275</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C168" s="9">
         <v>81</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="32" t="s">
         <v>48</v>
       </c>
       <c r="E168" s="9"/>
@@ -5515,14 +5533,14 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="29">
+      <c r="A169" s="28">
         <v>44298</v>
       </c>
-      <c r="B169" s="33" t="s">
+      <c r="B169" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C169" s="9"/>
-      <c r="D169" s="33" t="s">
+      <c r="D169" s="32" t="s">
         <v>50</v>
       </c>
       <c r="E169" s="9">
@@ -5545,16 +5563,16 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="29">
+      <c r="A170" s="28">
         <v>44303</v>
       </c>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C170" s="9">
         <v>73</v>
       </c>
-      <c r="D170" s="32" t="s">
+      <c r="D170" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E170" s="9"/>
@@ -5573,14 +5591,14 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="29">
+      <c r="A171" s="28">
         <v>44326</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C171" s="9"/>
-      <c r="D171" s="32" t="s">
+      <c r="D171" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E171" s="9">
@@ -5603,16 +5621,16 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="29">
+      <c r="A172" s="28">
         <v>44331</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C172" s="9">
         <v>62</v>
       </c>
-      <c r="D172" s="32" t="s">
+      <c r="D172" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E172" s="9"/>
@@ -5631,14 +5649,14 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="29">
+      <c r="A173" s="28">
         <v>44357</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B173" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C173" s="9"/>
-      <c r="D173" s="32" t="s">
+      <c r="D173" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E173" s="9">
@@ -5661,16 +5679,16 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="29">
+      <c r="A174" s="28">
         <v>44366</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C174" s="9">
         <v>66</v>
       </c>
-      <c r="D174" s="32" t="s">
+      <c r="D174" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E174" s="9"/>
@@ -5689,14 +5707,14 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="29">
+      <c r="A175" s="28">
         <v>44389</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B175" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="32" t="s">
+      <c r="D175" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E175" s="9">
@@ -5719,16 +5737,16 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="29">
+      <c r="A176" s="28">
         <v>44394</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C176" s="9">
         <v>51</v>
       </c>
-      <c r="D176" s="32" t="s">
+      <c r="D176" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E176" s="9"/>
@@ -5747,16 +5765,16 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="29">
+      <c r="A177" s="28">
         <v>44411</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B177" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C177" s="9">
         <v>700000</v>
       </c>
-      <c r="D177" s="32" t="s">
+      <c r="D177" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E177" s="9"/>
@@ -5775,14 +5793,14 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="29">
+      <c r="A178" s="28">
         <v>44418</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="32" t="s">
+      <c r="D178" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E178" s="9">
@@ -5805,16 +5823,16 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="29">
+      <c r="A179" s="28">
         <v>44429</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C179" s="9">
         <v>74</v>
       </c>
-      <c r="D179" s="32" t="s">
+      <c r="D179" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E179" s="9"/>
@@ -5833,16 +5851,16 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="29">
+      <c r="A180" s="28">
         <v>44435</v>
       </c>
-      <c r="B180" s="33" t="s">
+      <c r="B180" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C180" s="9">
         <v>700000</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D180" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E180" s="9"/>
@@ -5861,14 +5879,14 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="29">
+      <c r="A181" s="28">
         <v>44449</v>
       </c>
-      <c r="B181" s="33" t="s">
+      <c r="B181" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C181" s="9"/>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="32" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="9">
@@ -5891,16 +5909,16 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="29">
+      <c r="A182" s="28">
         <v>44457</v>
       </c>
-      <c r="B182" s="33" t="s">
+      <c r="B182" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C182" s="9">
         <v>116</v>
       </c>
-      <c r="D182" s="33" t="s">
+      <c r="D182" s="32" t="s">
         <v>63</v>
       </c>
       <c r="E182" s="9"/>
@@ -5919,22 +5937,22 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="29">
+      <c r="A183" s="28">
         <v>44462</v>
       </c>
-      <c r="B183" s="33" t="s">
+      <c r="B183" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C183" s="9">
         <v>700000</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D183" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9">
-        <f t="shared" ref="G183:G200" si="17">E183+F183</f>
+        <f t="shared" ref="G183:G207" si="17">E183+F183</f>
         <v>0</v>
       </c>
       <c r="H183" s="9">
@@ -5947,14 +5965,14 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="29">
+      <c r="A184" s="28">
         <v>44481</v>
       </c>
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C184" s="9"/>
-      <c r="D184" s="33" t="s">
+      <c r="D184" s="32" t="s">
         <v>66</v>
       </c>
       <c r="E184" s="9">
@@ -5977,16 +5995,16 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="29">
+      <c r="A185" s="28">
         <v>44485</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C185" s="9">
         <v>152</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E185" s="9"/>
@@ -6005,14 +6023,14 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="29">
+      <c r="A186" s="28">
         <v>44510</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="B186" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C186" s="9"/>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E186" s="9">
@@ -6035,16 +6053,16 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="29">
+      <c r="A187" s="28">
         <v>44520</v>
       </c>
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C187" s="9">
         <v>193</v>
       </c>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E187" s="9"/>
@@ -6063,14 +6081,14 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="29">
+      <c r="A188" s="28">
         <v>44540</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C188" s="9"/>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E188" s="9">
@@ -6093,16 +6111,16 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="29">
+      <c r="A189" s="28">
         <v>44548</v>
       </c>
-      <c r="B189" s="33" t="s">
+      <c r="B189" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C189" s="9">
         <v>140</v>
       </c>
-      <c r="D189" s="32" t="s">
+      <c r="D189" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E189" s="9"/>
@@ -6121,16 +6139,16 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="29">
+      <c r="A190" s="28">
         <v>44560</v>
       </c>
-      <c r="B190" s="33" t="s">
+      <c r="B190" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C190" s="9">
         <v>700000</v>
       </c>
-      <c r="D190" s="32" t="s">
+      <c r="D190" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E190" s="9"/>
@@ -6149,14 +6167,14 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="29">
+      <c r="A191" s="28">
         <v>44571</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="B191" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C191" s="9"/>
-      <c r="D191" s="32" t="s">
+      <c r="D191" s="31" t="s">
         <v>73</v>
       </c>
       <c r="E191" s="9">
@@ -6179,16 +6197,16 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="34">
+      <c r="A192" s="33">
         <v>44576</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C192" s="35">
+      <c r="C192" s="34">
         <v>161</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D192" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E192" s="9"/>
@@ -6198,23 +6216,23 @@
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <f t="shared" ref="H192:H200" si="22">SUM(H191-F192)</f>
+        <f t="shared" ref="H192:H207" si="22">SUM(H191-F192)</f>
         <v>25549524</v>
       </c>
       <c r="I192" s="9">
-        <f t="shared" ref="I192:I200" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
+        <f t="shared" ref="I192:I207" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
         <v>2560138</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="29">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" s="28">
         <v>44602</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B193" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C193" s="9"/>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E193" s="9">
@@ -6236,17 +6254,17 @@
         <v>2426094</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="29">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" s="28">
         <v>44611</v>
       </c>
-      <c r="B194" s="33" t="s">
+      <c r="B194" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C194" s="9">
         <v>212</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="32" t="s">
         <v>80</v>
       </c>
       <c r="E194" s="9"/>
@@ -6264,17 +6282,17 @@
         <v>2426306</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="29">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" s="28">
         <v>44623</v>
       </c>
-      <c r="B195" s="33" t="s">
+      <c r="B195" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C195" s="9">
         <v>700000</v>
       </c>
-      <c r="D195" s="32" t="s">
+      <c r="D195" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E195" s="9"/>
@@ -6292,15 +6310,15 @@
         <v>3126306</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="29">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="28">
         <v>44630</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C196" s="9"/>
-      <c r="D196" s="32" t="s">
+      <c r="D196" s="31" t="s">
         <v>78</v>
       </c>
       <c r="E196" s="9">
@@ -6322,17 +6340,17 @@
         <v>2992422</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="29">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="28">
         <v>44639</v>
       </c>
-      <c r="B197" s="33" t="s">
+      <c r="B197" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C197" s="9">
         <v>193</v>
       </c>
-      <c r="D197" s="32" t="s">
+      <c r="D197" s="31" t="s">
         <v>80</v>
       </c>
       <c r="E197" s="9"/>
@@ -6350,17 +6368,17 @@
         <v>2992615</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="29">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="28">
         <v>44648</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C198" s="9">
         <v>700000</v>
       </c>
-      <c r="D198" s="32" t="s">
+      <c r="D198" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E198" s="9"/>
@@ -6378,15 +6396,15 @@
         <v>3692615</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="29">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="28">
         <v>44662</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C199" s="9"/>
-      <c r="D199" s="32" t="s">
+      <c r="D199" s="31" t="s">
         <v>82</v>
       </c>
       <c r="E199" s="9">
@@ -6408,17 +6426,17 @@
         <v>3558891</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="29">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="28">
         <v>44667</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C200" s="9">
         <v>234</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="D200" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E200" s="9"/>
@@ -6435,37 +6453,211 @@
         <f t="shared" si="23"/>
         <v>3559125</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D201" s="10"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L200" s="10"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="28">
+        <v>44682</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D201" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H201" s="9">
+        <f t="shared" si="22"/>
+        <v>25281522</v>
+      </c>
+      <c r="I201" s="9">
+        <f t="shared" si="23"/>
+        <v>4259125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="28">
+        <v>44691</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" s="9"/>
+      <c r="D202" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E202" s="9">
+        <v>44240</v>
+      </c>
+      <c r="F202" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G202" s="9">
+        <f t="shared" si="17"/>
+        <v>133574</v>
+      </c>
+      <c r="H202" s="9">
+        <f t="shared" si="22"/>
+        <v>25192188</v>
+      </c>
+      <c r="I202" s="9">
+        <f t="shared" si="23"/>
+        <v>4125551</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" s="28">
+        <v>44702</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C203" s="9">
+        <v>325</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H203" s="9">
+        <f t="shared" si="22"/>
+        <v>25192188</v>
+      </c>
+      <c r="I203" s="9">
+        <f t="shared" si="23"/>
+        <v>4125876</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="28">
+        <v>44722</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204" s="9">
+        <v>44080</v>
+      </c>
+      <c r="F204" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G204" s="9">
+        <f t="shared" si="17"/>
+        <v>133414</v>
+      </c>
+      <c r="H204" s="9">
+        <f t="shared" si="22"/>
+        <v>25102854</v>
+      </c>
+      <c r="I204" s="9">
+        <f t="shared" si="23"/>
+        <v>3992462</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" s="28">
+        <v>44730</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" s="9">
+        <v>273</v>
+      </c>
+      <c r="D205" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H205" s="9">
+        <f t="shared" si="22"/>
+        <v>25102854</v>
+      </c>
+      <c r="I205" s="9">
+        <f t="shared" si="23"/>
+        <v>3992735</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="28">
+        <v>44753</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="D206" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206" s="9">
+        <v>43920</v>
+      </c>
+      <c r="F206" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G206" s="9">
+        <f t="shared" si="17"/>
+        <v>133254</v>
+      </c>
+      <c r="H206" s="9">
+        <f t="shared" si="22"/>
+        <v>25013520</v>
+      </c>
+      <c r="I206" s="9">
+        <f t="shared" si="23"/>
+        <v>3859481</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" s="28">
+        <v>44758</v>
+      </c>
+      <c r="B207" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" s="9">
+        <v>264</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H207" s="9">
+        <f t="shared" si="22"/>
+        <v>25013520</v>
+      </c>
+      <c r="I207" s="9">
+        <f t="shared" si="23"/>
+        <v>3859745</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
@@ -9890,7 +10082,7 @@
         <f t="shared" si="3"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="26"/>
+      <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
@@ -10084,13 +10276,13 @@
       <c r="A123" s="11">
         <v>43666</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="8">
         <v>254</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="8">
@@ -10116,13 +10308,13 @@
       <c r="A124" s="11">
         <v>43684</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="17">
+      <c r="B124" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="16">
         <v>138734</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="8">
@@ -10148,19 +10340,19 @@
       <c r="A125" s="6">
         <v>43689</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="8">
         <v>0</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="27">
+      <c r="E125" s="26">
         <v>49400</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="26">
         <v>89334</v>
       </c>
       <c r="G125" s="8">

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="102">
   <si>
     <t>날    자</t>
   </si>
@@ -364,6 +364,54 @@
     <t>예금이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출전액중도상환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -463,6 +511,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -472,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,10 +637,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +1022,8 @@
   <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I207" sqref="I207"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J215" sqref="J215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4046,7 +4111,7 @@
         <f t="shared" si="3"/>
         <v>2961081</v>
       </c>
-      <c r="J116" s="36"/>
+      <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
@@ -5952,7 +6017,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9">
-        <f t="shared" ref="G183:G207" si="17">E183+F183</f>
+        <f t="shared" ref="G183:G212" si="17">E183+F183</f>
         <v>0</v>
       </c>
       <c r="H183" s="9">
@@ -6216,11 +6281,11 @@
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <f t="shared" ref="H192:H207" si="22">SUM(H191-F192)</f>
+        <f t="shared" ref="H192:H212" si="22">SUM(H191-F192)</f>
         <v>25549524</v>
       </c>
       <c r="I192" s="9">
-        <f t="shared" ref="I192:I207" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
+        <f t="shared" ref="I192:I208" si="23">IF(EXACT(D192, "대출"),SUM(I191-G192),IF(EXACT(B192,"입금"),SUM(I191+C192),IF(EXACT(B191,"출금"),SUM(I191-C192))))</f>
         <v>2560138</v>
       </c>
     </row>
@@ -6465,7 +6530,7 @@
       <c r="C201" s="9">
         <v>700000</v>
       </c>
-      <c r="D201" s="35" t="s">
+      <c r="D201" s="36" t="s">
         <v>86</v>
       </c>
       <c r="E201" s="9"/>
@@ -6658,70 +6723,261 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-    </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-    </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-    </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-    </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-    </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-    </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-    </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-    </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="28">
+        <v>44776</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C208" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9">
+        <f t="shared" si="22"/>
+        <v>25013520</v>
+      </c>
+      <c r="I208" s="9">
+        <f t="shared" si="23"/>
+        <v>4559745</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="28">
+        <v>44783</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E209" s="9">
+        <v>43770</v>
+      </c>
+      <c r="F209" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G209" s="9">
+        <f t="shared" si="17"/>
+        <v>133104</v>
+      </c>
+      <c r="H209" s="9">
+        <f t="shared" si="22"/>
+        <v>24924186</v>
+      </c>
+      <c r="I209" s="9">
+        <f>IF(EXACT(D209, "대출"),SUM(I208-G209),IF(EXACT(B209,"입금"),SUM(I208+C209),IF(EXACT(B208,"출금"),SUM(I208-C209))))</f>
+        <v>4426641</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="28">
+        <v>110536</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C210" s="9">
+        <v>349</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H210" s="9">
+        <f t="shared" si="22"/>
+        <v>24924186</v>
+      </c>
+      <c r="I210" s="9">
+        <f t="shared" ref="I210:I212" si="24">IF(EXACT(D210, "대출"),SUM(I209-G210),IF(EXACT(B210,"입금"),SUM(I209+C210),IF(EXACT(B209,"출금"),SUM(I209-C210))))</f>
+        <v>4426990</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="28">
+        <v>44803</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H211" s="9">
+        <f t="shared" si="22"/>
+        <v>24924186</v>
+      </c>
+      <c r="I211" s="9">
+        <f t="shared" si="24"/>
+        <v>5126990</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="28">
+        <v>44817</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="9">
+        <v>43610</v>
+      </c>
+      <c r="F212" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G212" s="9">
+        <f t="shared" si="17"/>
+        <v>132944</v>
+      </c>
+      <c r="H212" s="9">
+        <f t="shared" si="22"/>
+        <v>24834852</v>
+      </c>
+      <c r="I212" s="9">
+        <f t="shared" si="24"/>
+        <v>4994046</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="37">
+        <v>44821</v>
+      </c>
+      <c r="B213" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C213" s="1">
+        <v>322</v>
+      </c>
+      <c r="D213" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9">
+        <f t="shared" ref="G213:G214" si="25">E213+F213</f>
+        <v>0</v>
+      </c>
+      <c r="H213" s="9">
+        <f t="shared" ref="H213:H214" si="26">SUM(H212-F213)</f>
+        <v>24834852</v>
+      </c>
+      <c r="I213" s="9">
+        <f t="shared" ref="I213:I214" si="27">IF(EXACT(D213, "대출"),SUM(I212-G213),IF(EXACT(B213,"입금"),SUM(I212+C213),IF(EXACT(B212,"출금"),SUM(I212-C213))))</f>
+        <v>4994368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="28">
+        <v>44845</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E214" s="9">
+        <v>43460</v>
+      </c>
+      <c r="F214" s="9">
+        <v>89334</v>
+      </c>
+      <c r="G214" s="9">
+        <f t="shared" si="25"/>
+        <v>132794</v>
+      </c>
+      <c r="H214" s="9">
+        <f t="shared" si="26"/>
+        <v>24745518</v>
+      </c>
+      <c r="I214" s="9">
+        <f t="shared" si="27"/>
+        <v>4861574</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="28">
+        <v>44848</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9">
+        <v>24702058</v>
+      </c>
+      <c r="I215" s="9">
+        <v>4861574</v>
+      </c>
+      <c r="K215" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>

--- a/woori_bank.xlsx
+++ b/woori_bank.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="101">
   <si>
     <t>날    자</t>
   </si>
@@ -408,10 +408,6 @@
     <t>대출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>대출전액중도상환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -464,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -522,6 +518,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +665,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J215" sqref="J215"/>
+      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6747,7 +6786,7 @@
         <v>4559745</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
         <v>44783</v>
       </c>
@@ -6777,7 +6816,7 @@
         <v>4426641</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
         <v>110536</v>
       </c>
@@ -6805,7 +6844,7 @@
         <v>4426990</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="28">
         <v>44803</v>
       </c>
@@ -6833,7 +6872,7 @@
         <v>5126990</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
         <v>44817</v>
       </c>
@@ -6863,7 +6902,7 @@
         <v>4994046</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="37">
         <v>44821</v>
       </c>
@@ -6891,93 +6930,83 @@
         <v>4994368</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="28">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="39">
         <v>44845</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="32" t="s">
+      <c r="C214" s="41"/>
+      <c r="D214" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="41">
         <v>43460</v>
       </c>
-      <c r="F214" s="9">
+      <c r="F214" s="41">
         <v>89334</v>
       </c>
-      <c r="G214" s="9">
+      <c r="G214" s="41">
         <f t="shared" si="25"/>
         <v>132794</v>
       </c>
-      <c r="H214" s="9">
+      <c r="H214" s="41">
         <f t="shared" si="26"/>
         <v>24745518</v>
       </c>
-      <c r="I214" s="9">
+      <c r="I214" s="41">
         <f t="shared" si="27"/>
         <v>4861574</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="28">
-        <v>44848</v>
-      </c>
-      <c r="B215" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9">
-        <v>24702058</v>
-      </c>
-      <c r="I215" s="9">
-        <v>4861574</v>
-      </c>
-      <c r="K215" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="42"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="44"/>
+      <c r="H215" s="44"/>
+      <c r="I215" s="44"/>
+      <c r="J215" s="45"/>
+      <c r="K215" s="45"/>
+      <c r="L215" s="45"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
